--- a/data/trans_orig/IP74A4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP74A4_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{924AFA44-4EA6-48D0-97CB-B00A1C97C24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C12613-FA62-4691-AE33-98CCF9DB085A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{450BAA50-70D7-4B29-9637-AD2EDAF9770A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ADA35731-C698-4DFD-9381-EBED89FE1020}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -495,7 +495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D142A8-A18D-46CE-BB75-685663CB036D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C300FBFC-646A-430B-8FDC-3719E3AE91CD}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP74A4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP74A4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C12613-FA62-4691-AE33-98CCF9DB085A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22B9244-EEC5-4194-8AE7-DA9CD57734D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ADA35731-C698-4DFD-9381-EBED89FE1020}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6A0D0DEF-2059-48A1-BB01-7CF0F0D4C400}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
-  <si>
-    <t>Adulto según si ha resuelto las cuotas de seguros en 2023 (Tasa respuesta: 0,05%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
+  <si>
+    <t>Adulto según si ha resuelto las cuotas de seguros en 2023 (Tasa respuesta: 0,57%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,22 +65,67 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
   </si>
   <si>
     <t>100%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -495,8 +540,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C300FBFC-646A-430B-8FDC-3719E3AE91CD}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F3E4FE-7162-479C-A2E4-38AB33C82D94}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -626,40 +671,36 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -675,42 +716,36 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -726,98 +761,494 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1791</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4193</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5984</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
-        <v>391</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="D8" s="7">
+        <v>825</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>396</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1221</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2616</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4589</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="7">
+        <v>11</v>
+      </c>
+      <c r="N9" s="7">
+        <v>7205</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1791</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="7">
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4193</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="7">
+        <v>9</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5984</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="N6" s="7">
-        <v>391</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="D14" s="7">
+        <v>825</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>396</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1221</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>391</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>391</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
+      <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2616</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
+        <v>7</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4589</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="7">
+        <v>11</v>
+      </c>
+      <c r="N15" s="7">
+        <v>7205</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
